--- a/po_analysis_by_asin/B08BR1XDX5_po_data.xlsx
+++ b/po_analysis_by_asin/B08BR1XDX5_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,9 +452,217 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45362</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B28" t="n">
         <v>30</v>
       </c>
     </row>
@@ -469,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +699,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44985.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45016.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B11" t="n">
         <v>30</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B08BR1XDX5_po_data.xlsx
+++ b/po_analysis_by_asin/B08BR1XDX5_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,14 +658,6 @@
         <v>370</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B28" t="n">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -677,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,14 +761,6 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B08BR1XDX5_po_data.xlsx
+++ b/po_analysis_by_asin/B08BR1XDX5_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -685,7 +686,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -759,6 +760,523 @@
       </c>
       <c r="B10" t="n">
         <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>146</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.742700319204755</v>
+      </c>
+      <c r="D2" t="n">
+        <v>299.5027582159902</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>142</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-7.91495752978489</v>
+      </c>
+      <c r="D3" t="n">
+        <v>296.618642445348</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>140</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.065772799681369</v>
+      </c>
+      <c r="D4" t="n">
+        <v>294.2293153867589</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>139</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4.672937277533527</v>
+      </c>
+      <c r="D5" t="n">
+        <v>290.4571462186574</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>130</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-17.98733595226494</v>
+      </c>
+      <c r="D6" t="n">
+        <v>286.6170471390983</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>129</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-25.61433297902525</v>
+      </c>
+      <c r="D7" t="n">
+        <v>270.5968345971293</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>125</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-20.90087505150275</v>
+      </c>
+      <c r="D8" t="n">
+        <v>279.4175676135313</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>124</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-27.11822640731911</v>
+      </c>
+      <c r="D9" t="n">
+        <v>278.1040966604496</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>123</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-25.10622276487808</v>
+      </c>
+      <c r="D10" t="n">
+        <v>276.1053561270215</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>122</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-29.95034554401544</v>
+      </c>
+      <c r="D11" t="n">
+        <v>264.0067428668272</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>120</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-33.37080927800945</v>
+      </c>
+      <c r="D12" t="n">
+        <v>279.7738199878333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>119</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-17.762926105863</v>
+      </c>
+      <c r="D13" t="n">
+        <v>276.0911012050643</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>118</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-17.21126533357818</v>
+      </c>
+      <c r="D14" t="n">
+        <v>260.481079571683</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>117</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-24.87987306796238</v>
+      </c>
+      <c r="D15" t="n">
+        <v>266.6310572163071</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>116</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-29.39029888329701</v>
+      </c>
+      <c r="D16" t="n">
+        <v>268.6724471800283</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>115</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-37.64241942215545</v>
+      </c>
+      <c r="D17" t="n">
+        <v>259.8824633545863</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>113</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-41.02230942711368</v>
+      </c>
+      <c r="D18" t="n">
+        <v>246.832135401425</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>112</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-41.01058670995335</v>
+      </c>
+      <c r="D19" t="n">
+        <v>262.5233692013923</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>111</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-34.1200820377242</v>
+      </c>
+      <c r="D20" t="n">
+        <v>261.1108385403078</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>110</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-45.23092224099088</v>
+      </c>
+      <c r="D21" t="n">
+        <v>251.001138087466</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>108</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-45.07958232931986</v>
+      </c>
+      <c r="D22" t="n">
+        <v>254.8537946224166</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>106</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-41.13390247322449</v>
+      </c>
+      <c r="D23" t="n">
+        <v>264.6785961497245</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>105</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-56.88234085808905</v>
+      </c>
+      <c r="D24" t="n">
+        <v>256.1356372521067</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>104</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-59.42409418475212</v>
+      </c>
+      <c r="D25" t="n">
+        <v>267.2873858973067</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>103</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-39.79082804388727</v>
+      </c>
+      <c r="D26" t="n">
+        <v>252.938207325325</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>102</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-46.99545307342268</v>
+      </c>
+      <c r="D27" t="n">
+        <v>247.6984871665373</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>101</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-47.96564523212126</v>
+      </c>
+      <c r="D28" t="n">
+        <v>244.9198230429763</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>99</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-49.62666654554188</v>
+      </c>
+      <c r="D29" t="n">
+        <v>241.1668252003537</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>98</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-42.529474837824</v>
+      </c>
+      <c r="D30" t="n">
+        <v>248.4386608509636</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>97</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-54.30830112626904</v>
+      </c>
+      <c r="D31" t="n">
+        <v>240.3339152246517</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>96</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-54.11204482030026</v>
+      </c>
+      <c r="D32" t="n">
+        <v>248.721827269527</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>95</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-48.02457881948936</v>
+      </c>
+      <c r="D33" t="n">
+        <v>234.495749184773</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>93</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-37.37844070387779</v>
+      </c>
+      <c r="D34" t="n">
+        <v>243.3475237270203</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>92</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-50.84908313537846</v>
+      </c>
+      <c r="D35" t="n">
+        <v>253.7631750006227</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B08BR1XDX5_po_data.xlsx
+++ b/po_analysis_by_asin/B08BR1XDX5_po_data.xlsx
@@ -773,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,16 +792,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -810,12 +800,6 @@
       <c r="B2" t="n">
         <v>146</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.742700319204755</v>
-      </c>
-      <c r="D2" t="n">
-        <v>299.5027582159902</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -824,12 +808,6 @@
       <c r="B3" t="n">
         <v>142</v>
       </c>
-      <c r="C3" t="n">
-        <v>-7.91495752978489</v>
-      </c>
-      <c r="D3" t="n">
-        <v>296.618642445348</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -838,12 +816,6 @@
       <c r="B4" t="n">
         <v>140</v>
       </c>
-      <c r="C4" t="n">
-        <v>-4.065772799681369</v>
-      </c>
-      <c r="D4" t="n">
-        <v>294.2293153867589</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -852,12 +824,6 @@
       <c r="B5" t="n">
         <v>139</v>
       </c>
-      <c r="C5" t="n">
-        <v>-4.672937277533527</v>
-      </c>
-      <c r="D5" t="n">
-        <v>290.4571462186574</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -866,12 +832,6 @@
       <c r="B6" t="n">
         <v>130</v>
       </c>
-      <c r="C6" t="n">
-        <v>-17.98733595226494</v>
-      </c>
-      <c r="D6" t="n">
-        <v>286.6170471390983</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -880,12 +840,6 @@
       <c r="B7" t="n">
         <v>129</v>
       </c>
-      <c r="C7" t="n">
-        <v>-25.61433297902525</v>
-      </c>
-      <c r="D7" t="n">
-        <v>270.5968345971293</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,12 +848,6 @@
       <c r="B8" t="n">
         <v>125</v>
       </c>
-      <c r="C8" t="n">
-        <v>-20.90087505150275</v>
-      </c>
-      <c r="D8" t="n">
-        <v>279.4175676135313</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -908,12 +856,6 @@
       <c r="B9" t="n">
         <v>124</v>
       </c>
-      <c r="C9" t="n">
-        <v>-27.11822640731911</v>
-      </c>
-      <c r="D9" t="n">
-        <v>278.1040966604496</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -922,12 +864,6 @@
       <c r="B10" t="n">
         <v>123</v>
       </c>
-      <c r="C10" t="n">
-        <v>-25.10622276487808</v>
-      </c>
-      <c r="D10" t="n">
-        <v>276.1053561270215</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -936,12 +872,6 @@
       <c r="B11" t="n">
         <v>122</v>
       </c>
-      <c r="C11" t="n">
-        <v>-29.95034554401544</v>
-      </c>
-      <c r="D11" t="n">
-        <v>264.0067428668272</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -950,12 +880,6 @@
       <c r="B12" t="n">
         <v>120</v>
       </c>
-      <c r="C12" t="n">
-        <v>-33.37080927800945</v>
-      </c>
-      <c r="D12" t="n">
-        <v>279.7738199878333</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -964,12 +888,6 @@
       <c r="B13" t="n">
         <v>119</v>
       </c>
-      <c r="C13" t="n">
-        <v>-17.762926105863</v>
-      </c>
-      <c r="D13" t="n">
-        <v>276.0911012050643</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -978,12 +896,6 @@
       <c r="B14" t="n">
         <v>118</v>
       </c>
-      <c r="C14" t="n">
-        <v>-17.21126533357818</v>
-      </c>
-      <c r="D14" t="n">
-        <v>260.481079571683</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -992,12 +904,6 @@
       <c r="B15" t="n">
         <v>117</v>
       </c>
-      <c r="C15" t="n">
-        <v>-24.87987306796238</v>
-      </c>
-      <c r="D15" t="n">
-        <v>266.6310572163071</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1006,12 +912,6 @@
       <c r="B16" t="n">
         <v>116</v>
       </c>
-      <c r="C16" t="n">
-        <v>-29.39029888329701</v>
-      </c>
-      <c r="D16" t="n">
-        <v>268.6724471800283</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1020,12 +920,6 @@
       <c r="B17" t="n">
         <v>115</v>
       </c>
-      <c r="C17" t="n">
-        <v>-37.64241942215545</v>
-      </c>
-      <c r="D17" t="n">
-        <v>259.8824633545863</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1034,12 +928,6 @@
       <c r="B18" t="n">
         <v>113</v>
       </c>
-      <c r="C18" t="n">
-        <v>-41.02230942711368</v>
-      </c>
-      <c r="D18" t="n">
-        <v>246.832135401425</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1048,12 +936,6 @@
       <c r="B19" t="n">
         <v>112</v>
       </c>
-      <c r="C19" t="n">
-        <v>-41.01058670995335</v>
-      </c>
-      <c r="D19" t="n">
-        <v>262.5233692013923</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1062,12 +944,6 @@
       <c r="B20" t="n">
         <v>111</v>
       </c>
-      <c r="C20" t="n">
-        <v>-34.1200820377242</v>
-      </c>
-      <c r="D20" t="n">
-        <v>261.1108385403078</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1076,12 +952,6 @@
       <c r="B21" t="n">
         <v>110</v>
       </c>
-      <c r="C21" t="n">
-        <v>-45.23092224099088</v>
-      </c>
-      <c r="D21" t="n">
-        <v>251.001138087466</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1090,12 +960,6 @@
       <c r="B22" t="n">
         <v>108</v>
       </c>
-      <c r="C22" t="n">
-        <v>-45.07958232931986</v>
-      </c>
-      <c r="D22" t="n">
-        <v>254.8537946224166</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1104,12 +968,6 @@
       <c r="B23" t="n">
         <v>106</v>
       </c>
-      <c r="C23" t="n">
-        <v>-41.13390247322449</v>
-      </c>
-      <c r="D23" t="n">
-        <v>264.6785961497245</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1118,12 +976,6 @@
       <c r="B24" t="n">
         <v>105</v>
       </c>
-      <c r="C24" t="n">
-        <v>-56.88234085808905</v>
-      </c>
-      <c r="D24" t="n">
-        <v>256.1356372521067</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1132,12 +984,6 @@
       <c r="B25" t="n">
         <v>104</v>
       </c>
-      <c r="C25" t="n">
-        <v>-59.42409418475212</v>
-      </c>
-      <c r="D25" t="n">
-        <v>267.2873858973067</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1146,12 +992,6 @@
       <c r="B26" t="n">
         <v>103</v>
       </c>
-      <c r="C26" t="n">
-        <v>-39.79082804388727</v>
-      </c>
-      <c r="D26" t="n">
-        <v>252.938207325325</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1160,12 +1000,6 @@
       <c r="B27" t="n">
         <v>102</v>
       </c>
-      <c r="C27" t="n">
-        <v>-46.99545307342268</v>
-      </c>
-      <c r="D27" t="n">
-        <v>247.6984871665373</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1174,12 +1008,6 @@
       <c r="B28" t="n">
         <v>101</v>
       </c>
-      <c r="C28" t="n">
-        <v>-47.96564523212126</v>
-      </c>
-      <c r="D28" t="n">
-        <v>244.9198230429763</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1188,12 +1016,6 @@
       <c r="B29" t="n">
         <v>99</v>
       </c>
-      <c r="C29" t="n">
-        <v>-49.62666654554188</v>
-      </c>
-      <c r="D29" t="n">
-        <v>241.1668252003537</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1202,12 +1024,6 @@
       <c r="B30" t="n">
         <v>98</v>
       </c>
-      <c r="C30" t="n">
-        <v>-42.529474837824</v>
-      </c>
-      <c r="D30" t="n">
-        <v>248.4386608509636</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1216,12 +1032,6 @@
       <c r="B31" t="n">
         <v>97</v>
       </c>
-      <c r="C31" t="n">
-        <v>-54.30830112626904</v>
-      </c>
-      <c r="D31" t="n">
-        <v>240.3339152246517</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1230,12 +1040,6 @@
       <c r="B32" t="n">
         <v>96</v>
       </c>
-      <c r="C32" t="n">
-        <v>-54.11204482030026</v>
-      </c>
-      <c r="D32" t="n">
-        <v>248.721827269527</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1244,12 +1048,6 @@
       <c r="B33" t="n">
         <v>95</v>
       </c>
-      <c r="C33" t="n">
-        <v>-48.02457881948936</v>
-      </c>
-      <c r="D33" t="n">
-        <v>234.495749184773</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1258,12 +1056,6 @@
       <c r="B34" t="n">
         <v>93</v>
       </c>
-      <c r="C34" t="n">
-        <v>-37.37844070387779</v>
-      </c>
-      <c r="D34" t="n">
-        <v>243.3475237270203</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1271,12 +1063,6 @@
       </c>
       <c r="B35" t="n">
         <v>92</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-50.84908313537846</v>
-      </c>
-      <c r="D35" t="n">
-        <v>253.7631750006227</v>
       </c>
     </row>
   </sheetData>
